--- a/WPs.xlsx
+++ b/WPs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\verti\Desktop\misilnl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4542FD5F-0FE4-4A9E-835B-0CB3FF294550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4CC7B37-819A-4B96-8E20-9B18B4B85B24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="696" yWindow="1692" windowWidth="11520" windowHeight="10428" xr2:uid="{A6A748EE-5065-430A-81F7-1D121C2A92B4}"/>
+    <workbookView xWindow="9204" yWindow="1404" windowWidth="17280" windowHeight="8964" xr2:uid="{A6A748EE-5065-430A-81F7-1D121C2A92B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Waypoint</t>
   </si>
@@ -46,15 +46,6 @@
   </si>
   <si>
     <t>Longitude</t>
-  </si>
-  <si>
-    <t>DGRAF</t>
-  </si>
-  <si>
-    <t>ICHOL</t>
-  </si>
-  <si>
-    <t>SMERF</t>
   </si>
   <si>
     <t>Leg_distance</t>
@@ -424,7 +415,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -437,7 +428,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -446,12 +437,12 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>4</v>
+      <c r="A2">
+        <v>33</v>
       </c>
       <c r="B2">
         <v>35000</v>
@@ -470,8 +461,8 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>5</v>
+      <c r="A3">
+        <v>34</v>
       </c>
       <c r="B3">
         <v>35000</v>
@@ -490,8 +481,8 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>6</v>
+      <c r="A4">
+        <v>35</v>
       </c>
       <c r="B4">
         <v>35000</v>
